--- a/moneos_2020_test/tabellen/010_Inleiding_tabellen.xlsx
+++ b/moneos_2020_test/tabellen/010_Inleiding_tabellen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="55">
   <si>
     <t xml:space="preserve">Niveau 2 </t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>comp 14</t>
-  </si>
-  <si>
-    <t>n.v.t. *</t>
   </si>
   <si>
     <t>GetijdeDijle + GetijdeZenne</t>
@@ -715,7 +712,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -801,7 +798,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1171,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -1194,7 +1191,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1254,10 +1251,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -1266,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -1277,19 +1274,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
